--- a/data/ES + technologies + recreation.xlsx
+++ b/data/ES + technologies + recreation.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="HXP//UMo/yDyP8VXW9ni/cuOMAOxoFyfVD+oTF9uy/8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Xc8Grc5q1/4TLAdziMCb1UCJ0wRTY21Jb33HRKOeijU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="329">
   <si>
     <t>Authors</t>
   </si>
@@ -753,15 +753,6 @@
     <t>Urban parks planning and management is a crucial issue in the context of the urban environment and community development by creating space for social interactions, recreation, aesthetics and provide natural habitats. Apart from that, the value of the ecological functions such as air purification, storm water regulation and carbon storage are also crucial for biodiversity conservation within the urban context. This study provides a case study of the quantification of carbon sequestration rate by a selected urban park with a hybrid design landscape setting in Putra Heights, Mukim Damansara, Selangor. The carbon sequestration rate was calculated by biomass equations, using field data inventory, measurements, plan analysis and survey data analysis. This study aimed to discuss the influence of urban park green spaces, plant materials specifications and spatial design organization and pattern towards carbon sequestration rate. The significant outcome of this study is the determination of key factors that influenced the Carbon Sequestration Rate. This study proved that higher plants specification plays an important role in sequestering more carbon. The larger green area also contributes to higher carbon sequestration rate. These findings will become a novel landscape design approach to neutralize carbon emission with cost-effective and environmentally friendly.</t>
   </si>
   <si>
-    <t>Young, Stephen L.</t>
-  </si>
-  <si>
-    <t>What contributions are invasive plant species making to ecosystem services?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Csikos, Nandor; Toth, Gergely</t>
   </si>
   <si>
@@ -886,12 +877,6 @@
   </si>
   <si>
     <t>In Concepcion, Chile there are five urban lakes that provide different environmental services (recreation, occasional water supplies for various purposes, rainwater accumulation ponds), but very specifically they constitute biodiversity spaces and this is where their substantial and unique contribution lies for the city. The objective of the research presented here is to demonstrate how, based on the design and use of artificial wetlands as technologies to treat the waters entering Concepcion's urban lakes, an environmental improvement is made to theses lakes and the biodiversity of the surorunding environment increases. The analysis of the bodies of water was mainly based on a planimetric analysis, through observation and a photographic record, and a study of physicochemical quality indicators - such as total nitrogen (TN) and phosphorus (P) - and environmental quality, which was evaluated with the presence of macrophytes. Among the main contributions established, it is noteworthy to mention that the installation of artificial wetlands before lake entrances significantly reduces the polluting power of incoming waters and the chain of deterioration ends, thereby improving the urban ecosystem. In this way, the proposal becomes an efficient instrument to increase biodiversity and people's quality of life.</t>
-  </si>
-  <si>
-    <t>Koundouri, Phoebe; Rulleau, Benedicte</t>
-  </si>
-  <si>
-    <t>Valuing water: Selected applications</t>
   </si>
   <si>
     <t>Kosenok, Yury; Gorbanyov, Vladimir; Makar, Svetlana; Bubnov, Vladimir</t>
@@ -2441,7 +2426,7 @@
         <v>246</v>
       </c>
       <c r="C83" s="2">
-        <v>2010.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>247</v>
@@ -2455,7 +2440,7 @@
         <v>249</v>
       </c>
       <c r="C84" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>250</v>
@@ -2469,7 +2454,7 @@
         <v>252</v>
       </c>
       <c r="C85" s="2">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>253</v>
@@ -2497,7 +2482,7 @@
         <v>258</v>
       </c>
       <c r="C87" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>259</v>
@@ -2511,7 +2496,7 @@
         <v>261</v>
       </c>
       <c r="C88" s="2">
-        <v>2022.0</v>
+        <v>2018.0</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>262</v>
@@ -2525,7 +2510,7 @@
         <v>264</v>
       </c>
       <c r="C89" s="2">
-        <v>2018.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>265</v>
@@ -2539,7 +2524,7 @@
         <v>267</v>
       </c>
       <c r="C90" s="2">
-        <v>2017.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>268</v>
@@ -2553,7 +2538,7 @@
         <v>270</v>
       </c>
       <c r="C91" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>271</v>
@@ -2581,7 +2566,7 @@
         <v>276</v>
       </c>
       <c r="C93" s="2">
-        <v>2019.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>277</v>
@@ -2595,7 +2580,7 @@
         <v>279</v>
       </c>
       <c r="C94" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>280</v>
@@ -2623,7 +2608,7 @@
         <v>285</v>
       </c>
       <c r="C96" s="2">
-        <v>2022.0</v>
+        <v>2019.0</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>286</v>
@@ -2637,7 +2622,7 @@
         <v>288</v>
       </c>
       <c r="C97" s="2">
-        <v>2019.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>289</v>
@@ -2651,207 +2636,189 @@
         <v>291</v>
       </c>
       <c r="C98" s="2">
-        <v>2019.0</v>
+        <v>2023.0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C99" s="2">
         <v>2023.0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" s="2">
         <v>2023.0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C101" s="2">
         <v>2023.0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C102" s="2">
         <v>2023.0</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C103" s="2">
         <v>2023.0</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C104" s="2">
         <v>2023.0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C105" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C106" s="2">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C107" s="2">
         <v>2022.0</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C108" s="2">
         <v>2022.0</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" s="2">
-        <v>2022.0</v>
+        <v>2021.0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C110" s="2">
-        <v>2022.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C111" s="2">
-        <v>2021.0</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="D111" s="1"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2013.0</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="D112" s="1"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="1"/>
@@ -7277,16 +7244,6 @@
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="D997" s="1"/>
-    </row>
-    <row r="998" ht="12.75" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="D998" s="1"/>
-    </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="D999" s="1"/>
     </row>
   </sheetData>
   <printOptions/>
